--- a/Credit_services/fileBackup/Ikano.xlsx
+++ b/Credit_services/fileBackup/Ikano.xlsx
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Credit_services/fileBackup/Ikano.xlsx
+++ b/Credit_services/fileBackup/Ikano.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="242">
   <si>
     <t>DATABINDING</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>VerificationData</t>
-  </si>
-  <si>
-    <t>VerificationData2</t>
   </si>
   <si>
     <t>VerificationData3</t>
@@ -854,7 +851,28 @@
     <t>700124072</t>
   </si>
   <si>
-    <t>600124079</t>
+    <t>InitiateChromeDriver,Tesco_Login,Start_App,Loan_Page,Personal_Page,Address_Page,Employee_Page,Financial_Page,Marketing_Page,Frontoffice_Login,Accept_step,Tesco_Login,Search_Agreement,Esign_Agreement,Tesco_Login,check_agreement_status,</t>
+  </si>
+  <si>
+    <t>10-Aug-2016</t>
+  </si>
+  <si>
+    <t>Load TESTCO Payment Request File,Process TESTCO Payment Request File</t>
+  </si>
+  <si>
+    <t>EG_IK</t>
+  </si>
+  <si>
+    <t>BO_status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>600124185</t>
+  </si>
+  <si>
+    <t>InitiateChromeDriver,BO_Login,Batchrun,BO_Status_check</t>
   </si>
 </sst>
 </file>
@@ -1264,9 +1282,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1278,6 +1296,7 @@
     <col min="4" max="4" width="26.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1" collapsed="1"/>
@@ -1308,67 +1327,67 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="Z1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>6</v>
@@ -1377,34 +1396,34 @@
         <v>7</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="AI1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="AL1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>8</v>
@@ -1425,1570 +1444,1579 @@
         <v>13</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AU1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="BF1" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="BG1" s="7"/>
       <c r="BH1" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI1" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="BJ1" s="2"/>
       <c r="BK1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BL1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI2" t="s">
         <v>235</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>141</v>
+      <c r="AJ2" t="s">
+        <v>236</v>
       </c>
       <c r="AL2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" t="s">
         <v>35</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
       <c r="BH2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI2" t="s">
-        <v>211</v>
+        <v>237</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD3" t="s">
         <v>138</v>
       </c>
-      <c r="AD3" t="s">
-        <v>139</v>
-      </c>
       <c r="AE3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD4" t="s">
         <v>138</v>
       </c>
-      <c r="AD4" t="s">
-        <v>139</v>
-      </c>
       <c r="AE4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BH4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH5" t="s">
         <v>195</v>
       </c>
-      <c r="F5" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>196</v>
-      </c>
       <c r="BI5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="W6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="X6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD6" t="s">
         <v>138</v>
       </c>
-      <c r="AD6" t="s">
-        <v>139</v>
-      </c>
       <c r="AE6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AT6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BH6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="W7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="X7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD7" t="s">
         <v>138</v>
       </c>
-      <c r="AD7" t="s">
-        <v>139</v>
-      </c>
       <c r="AE7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BH7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="L8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="W8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="X8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD8" t="s">
         <v>138</v>
       </c>
-      <c r="AD8" t="s">
-        <v>139</v>
-      </c>
       <c r="AE8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AS8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" t="s">
         <v>130</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS9" t="s">
         <v>131</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>132</v>
       </c>
-      <c r="AT9" t="s">
-        <v>133</v>
-      </c>
       <c r="BH9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="W10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="X10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT10" t="s">
         <v>117</v>
       </c>
-      <c r="AB10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>118</v>
-      </c>
       <c r="BH10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="W11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="X11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD11" t="s">
         <v>138</v>
       </c>
-      <c r="AD11" t="s">
-        <v>139</v>
-      </c>
       <c r="AE11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BH11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="X12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT12" t="s">
         <v>121</v>
       </c>
-      <c r="AB12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>122</v>
-      </c>
       <c r="BH12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="W13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="X13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT13" t="s">
         <v>123</v>
       </c>
-      <c r="AB13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>124</v>
-      </c>
       <c r="BH13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="W14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="X14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT14" t="s">
         <v>123</v>
       </c>
-      <c r="AB14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AU14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AD14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE14" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU14" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV14" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="AW14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BD14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BE14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AG15" s="6" t="s">
+      <c r="AH15" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AH15" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="AS15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT15" t="s">
         <v>123</v>
       </c>
-      <c r="AT15" t="s">
-        <v>124</v>
-      </c>
       <c r="AU15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BD15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BE15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG16" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AG16" s="6" t="s">
+      <c r="AH16" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AH16" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="AS16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT16" t="s">
         <v>123</v>
       </c>
-      <c r="AT16" t="s">
-        <v>124</v>
-      </c>
       <c r="AU16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BD16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BE16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AG17" s="6" t="s">
+      <c r="AH17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AH17" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="AS17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT17" t="s">
         <v>123</v>
       </c>
-      <c r="AT17" t="s">
-        <v>124</v>
-      </c>
       <c r="AU17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AW17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BD17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BE17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:68" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -3013,7 +3041,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC18"/>
       <c r="AD18"/>
@@ -3047,7 +3075,7 @@
       <c r="BF18"/>
       <c r="BG18"/>
       <c r="BH18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI18"/>
       <c r="BJ18"/>
@@ -3060,13 +3088,13 @@
     </row>
     <row r="19" spans="1:68" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -3100,13 +3128,13 @@
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL19"/>
       <c r="AM19"/>
@@ -3142,12 +3170,17 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3184,187 +3217,187 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
